--- a/Team-Data/2014-15/1-25-2014-15.xlsx
+++ b/Team-Data/2014-15/1-25-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,64 +733,64 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.822</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
       </c>
       <c r="I2" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
         <v>80.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.473</v>
+        <v>0.471</v>
       </c>
       <c r="L2" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.387</v>
+        <v>0.388</v>
       </c>
       <c r="O2" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P2" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.771</v>
+        <v>0.773</v>
       </c>
       <c r="R2" t="n">
         <v>8.5</v>
       </c>
       <c r="S2" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="T2" t="n">
-        <v>40.9</v>
+        <v>41.2</v>
       </c>
       <c r="U2" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="V2" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W2" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
         <v>4.6</v>
@@ -732,19 +799,19 @@
         <v>4.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.4</v>
+        <v>103.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -756,10 +823,10 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
         <v>27</v>
@@ -771,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="AM2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN2" t="n">
         <v>2</v>
@@ -789,10 +856,10 @@
         <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
@@ -807,10 +874,10 @@
         <v>14</v>
       </c>
       <c r="AY2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA2" t="n">
         <v>12</v>
@@ -819,7 +886,7 @@
         <v>6</v>
       </c>
       <c r="BC2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>0.357</v>
+        <v>0.366</v>
       </c>
       <c r="H3" t="n">
         <v>48.6</v>
@@ -866,49 +933,49 @@
         <v>39.7</v>
       </c>
       <c r="J3" t="n">
-        <v>88</v>
+        <v>87.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L3" t="n">
         <v>7.6</v>
       </c>
       <c r="M3" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="N3" t="n">
-        <v>0.33</v>
+        <v>0.329</v>
       </c>
       <c r="O3" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="P3" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R3" t="n">
         <v>10.7</v>
       </c>
       <c r="S3" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T3" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U3" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="V3" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y3" t="n">
         <v>5.5</v>
@@ -920,7 +987,7 @@
         <v>18</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.9</v>
+        <v>101.7</v>
       </c>
       <c r="AC3" t="n">
         <v>-2</v>
@@ -929,13 +996,13 @@
         <v>29</v>
       </c>
       <c r="AE3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH3" t="n">
         <v>6</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
         <v>13</v>
@@ -965,31 +1032,31 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ3" t="n">
         <v>22</v>
@@ -998,10 +1065,10 @@
         <v>30</v>
       </c>
       <c r="BB3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -1108,22 +1175,22 @@
         <v>-3.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ4" t="n">
         <v>25</v>
@@ -1147,7 +1214,7 @@
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1162,10 +1229,10 @@
         <v>24</v>
       </c>
       <c r="AV4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX4" t="n">
         <v>23</v>
@@ -1180,7 +1247,7 @@
         <v>21</v>
       </c>
       <c r="BB4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC4" t="n">
         <v>25</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
         <v>18</v>
@@ -1305,7 +1372,7 @@
         <v>3</v>
       </c>
       <c r="AI5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
         <v>11</v>
@@ -1323,7 +1390,7 @@
         <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP5" t="n">
         <v>12</v>
@@ -1332,16 +1399,16 @@
         <v>27</v>
       </c>
       <c r="AR5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1359,10 +1426,10 @@
         <v>4</v>
       </c>
       <c r="BA5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -1394,43 +1461,43 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" t="n">
         <v>29</v>
       </c>
       <c r="F6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>0.63</v>
+        <v>0.644</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.444</v>
+        <v>0.447</v>
       </c>
       <c r="L6" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M6" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O6" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="P6" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="Q6" t="n">
         <v>0.782</v>
@@ -1439,43 +1506,43 @@
         <v>11.9</v>
       </c>
       <c r="S6" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="T6" t="n">
         <v>45.3</v>
       </c>
       <c r="U6" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V6" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W6" t="n">
         <v>6.3</v>
       </c>
       <c r="X6" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.8</v>
+        <v>102.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1484,16 +1551,16 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="n">
         <v>19</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1517,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT6" t="n">
         <v>5</v>
@@ -1535,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
@@ -1544,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="BB6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="n">
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.556</v>
+        <v>0.545</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1600,67 +1667,67 @@
         <v>0.454</v>
       </c>
       <c r="L7" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="M7" t="n">
-        <v>24.3</v>
+        <v>24</v>
       </c>
       <c r="N7" t="n">
-        <v>0.352</v>
+        <v>0.349</v>
       </c>
       <c r="O7" t="n">
         <v>18.8</v>
       </c>
       <c r="P7" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.755</v>
+        <v>0.757</v>
       </c>
       <c r="R7" t="n">
         <v>11.3</v>
       </c>
       <c r="S7" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T7" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U7" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V7" t="n">
         <v>13.8</v>
       </c>
       <c r="W7" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y7" t="n">
         <v>4.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
         <v>13</v>
@@ -1669,7 +1736,7 @@
         <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
         <v>21</v>
@@ -1684,16 +1751,16 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR7" t="n">
         <v>12</v>
@@ -1702,7 +1769,7 @@
         <v>25</v>
       </c>
       <c r="AT7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU7" t="n">
         <v>12</v>
@@ -1711,22 +1778,22 @@
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ7" t="n">
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -1791,25 +1858,25 @@
         <v>0.356</v>
       </c>
       <c r="O8" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P8" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.763</v>
+        <v>0.765</v>
       </c>
       <c r="R8" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S8" t="n">
         <v>31.4</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V8" t="n">
         <v>12.1</v>
@@ -1827,16 +1894,16 @@
         <v>20.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>108</v>
+        <v>107.9</v>
       </c>
       <c r="AC8" t="n">
         <v>6.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1848,13 +1915,13 @@
         <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
@@ -1863,28 +1930,28 @@
         <v>7</v>
       </c>
       <c r="AM8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN8" t="n">
         <v>12</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AS8" t="n">
         <v>21</v>
       </c>
       <c r="AT8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1896,7 +1963,7 @@
         <v>11</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -1940,37 +2007,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" t="n">
         <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" t="n">
-        <v>0.409</v>
+        <v>0.419</v>
       </c>
       <c r="H9" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J9" t="n">
-        <v>86.59999999999999</v>
+        <v>86.2</v>
       </c>
       <c r="K9" t="n">
         <v>0.436</v>
       </c>
       <c r="L9" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M9" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.323</v>
+        <v>0.32</v>
       </c>
       <c r="O9" t="n">
         <v>18.9</v>
@@ -1991,10 +2058,10 @@
         <v>45.8</v>
       </c>
       <c r="U9" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V9" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W9" t="n">
         <v>7</v>
@@ -2003,22 +2070,22 @@
         <v>4.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z9" t="n">
         <v>23.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>101.9</v>
+        <v>101.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.6</v>
+        <v>-2.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2030,16 +2097,16 @@
         <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
         <v>14</v>
@@ -2048,7 +2115,7 @@
         <v>12</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO9" t="n">
         <v>4</v>
@@ -2063,7 +2130,7 @@
         <v>2</v>
       </c>
       <c r="AS9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT9" t="n">
         <v>3</v>
@@ -2078,7 +2145,7 @@
         <v>24</v>
       </c>
       <c r="AX9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
         <v>28</v>
@@ -2087,10 +2154,10 @@
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BC9" t="n">
         <v>22</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -2122,34 +2189,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="n">
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" t="n">
-        <v>0.378</v>
+        <v>0.386</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J10" t="n">
-        <v>86.09999999999999</v>
+        <v>86</v>
       </c>
       <c r="K10" t="n">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
       <c r="L10" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="N10" t="n">
         <v>0.346</v>
@@ -2167,7 +2234,7 @@
         <v>12.9</v>
       </c>
       <c r="S10" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T10" t="n">
         <v>45.8</v>
@@ -2179,10 +2246,10 @@
         <v>13.7</v>
       </c>
       <c r="W10" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y10" t="n">
         <v>4.9</v>
@@ -2194,28 +2261,28 @@
         <v>19.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2</v>
+        <v>-1.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
         <v>6</v>
@@ -2224,16 +2291,16 @@
         <v>28</v>
       </c>
       <c r="AL10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM10" t="n">
         <v>8</v>
       </c>
-      <c r="AM10" t="n">
-        <v>7</v>
-      </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP10" t="n">
         <v>16</v>
@@ -2251,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="AU10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV10" t="n">
         <v>8</v>
@@ -2260,13 +2327,13 @@
         <v>12</v>
       </c>
       <c r="AX10" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AY10" t="n">
         <v>16</v>
       </c>
       <c r="AZ10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA10" t="n">
         <v>23</v>
@@ -2275,7 +2342,7 @@
         <v>21</v>
       </c>
       <c r="BC10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" t="n">
         <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.857</v>
+        <v>0.854</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
@@ -2322,49 +2389,49 @@
         <v>41.9</v>
       </c>
       <c r="J11" t="n">
-        <v>86.09999999999999</v>
+        <v>86</v>
       </c>
       <c r="K11" t="n">
-        <v>0.486</v>
+        <v>0.487</v>
       </c>
       <c r="L11" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="M11" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.39</v>
+        <v>0.391</v>
       </c>
       <c r="O11" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P11" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.781</v>
+        <v>0.779</v>
       </c>
       <c r="R11" t="n">
         <v>10.1</v>
       </c>
       <c r="S11" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="T11" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="U11" t="n">
         <v>27.2</v>
       </c>
       <c r="V11" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W11" t="n">
         <v>9.4</v>
       </c>
       <c r="X11" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y11" t="n">
         <v>3.5</v>
@@ -2379,7 +2446,7 @@
         <v>111.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="AD11" t="n">
         <v>29</v>
@@ -2400,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
@@ -2409,19 +2476,19 @@
         <v>2</v>
       </c>
       <c r="AM11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR11" t="n">
         <v>24</v>
@@ -2439,7 +2506,7 @@
         <v>25</v>
       </c>
       <c r="AW11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -2501,10 +2568,10 @@
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J12" t="n">
-        <v>83.40000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.441</v>
@@ -2513,22 +2580,22 @@
         <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.7</v>
+        <v>33.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.351</v>
+        <v>0.354</v>
       </c>
       <c r="O12" t="n">
-        <v>17.5</v>
+        <v>17.9</v>
       </c>
       <c r="P12" t="n">
-        <v>24.4</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.719</v>
+        <v>0.717</v>
       </c>
       <c r="R12" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S12" t="n">
         <v>31.3</v>
@@ -2543,28 +2610,28 @@
         <v>17.4</v>
       </c>
       <c r="W12" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X12" t="n">
         <v>4.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.9</v>
+        <v>103.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2576,10 +2643,10 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
         <v>16</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2615,28 +2682,28 @@
         <v>13</v>
       </c>
       <c r="AU12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -2668,58 +2735,58 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" t="n">
         <v>30</v>
       </c>
       <c r="G13" t="n">
-        <v>0.348</v>
+        <v>0.333</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="J13" t="n">
         <v>83.90000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.429</v>
+        <v>0.427</v>
       </c>
       <c r="L13" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M13" t="n">
         <v>20.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.325</v>
+        <v>0.323</v>
       </c>
       <c r="O13" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P13" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.755</v>
+        <v>0.757</v>
       </c>
       <c r="R13" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S13" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="T13" t="n">
         <v>45.2</v>
       </c>
       <c r="U13" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V13" t="n">
         <v>14.7</v>
@@ -2734,22 +2801,22 @@
         <v>4.9</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
         <v>21</v>
       </c>
       <c r="AB13" t="n">
-        <v>95</v>
+        <v>94.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>-2.2</v>
+        <v>-2.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF13" t="n">
         <v>25</v>
@@ -2758,13 +2825,13 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
@@ -2785,7 +2852,7 @@
         <v>24</v>
       </c>
       <c r="AQ13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR13" t="n">
         <v>14</v>
@@ -2800,16 +2867,16 @@
         <v>21</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ13" t="n">
         <v>18</v>
@@ -2818,7 +2885,7 @@
         <v>10</v>
       </c>
       <c r="BB13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
         <v>19</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="n">
         <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.674</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J14" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K14" t="n">
         <v>0.475</v>
@@ -2877,28 +2944,28 @@
         <v>10.2</v>
       </c>
       <c r="M14" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.384</v>
+        <v>0.383</v>
       </c>
       <c r="O14" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="P14" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.746</v>
+        <v>0.749</v>
       </c>
       <c r="R14" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="S14" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T14" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U14" t="n">
         <v>25.1</v>
@@ -2913,31 +2980,31 @@
         <v>4.9</v>
       </c>
       <c r="Y14" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Z14" t="n">
         <v>20.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.4</v>
+        <v>107.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
@@ -2955,19 +3022,19 @@
         <v>4</v>
       </c>
       <c r="AM14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN14" t="n">
         <v>3</v>
       </c>
       <c r="AO14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR14" t="n">
         <v>27</v>
@@ -2976,10 +3043,10 @@
         <v>15</v>
       </c>
       <c r="AT14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV14" t="n">
         <v>3</v>
@@ -2997,13 +3064,13 @@
         <v>16</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC14" t="n">
         <v>3</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -3047,46 +3114,46 @@
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J15" t="n">
         <v>85.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M15" t="n">
         <v>19.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.5</v>
       </c>
       <c r="P15" t="n">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.743</v>
+        <v>0.745</v>
       </c>
       <c r="R15" t="n">
         <v>11.4</v>
       </c>
       <c r="S15" t="n">
-        <v>31.9</v>
+        <v>31.5</v>
       </c>
       <c r="T15" t="n">
-        <v>43.3</v>
+        <v>42.9</v>
       </c>
       <c r="U15" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V15" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W15" t="n">
         <v>7.3</v>
@@ -3098,19 +3165,19 @@
         <v>4.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.6</v>
+        <v>-6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,13 +3192,13 @@
         <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
         <v>22</v>
@@ -3140,49 +3207,49 @@
         <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="n">
         <v>7</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
         <v>11</v>
       </c>
       <c r="AS15" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AT15" t="n">
         <v>15</v>
       </c>
       <c r="AU15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY15" t="n">
         <v>9</v>
       </c>
       <c r="AZ15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>4.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3310,7 +3377,7 @@
         <v>7</v>
       </c>
       <c r="AJ16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3325,7 +3392,7 @@
         <v>16</v>
       </c>
       <c r="AO16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="n">
         <v>13</v>
@@ -3346,13 +3413,13 @@
         <v>11</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW16" t="n">
         <v>8</v>
       </c>
       <c r="AX16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY16" t="n">
         <v>20</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -3396,85 +3463,85 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" t="n">
         <v>24</v>
       </c>
       <c r="G17" t="n">
-        <v>0.455</v>
+        <v>0.442</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="J17" t="n">
-        <v>74.59999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="K17" t="n">
         <v>0.458</v>
       </c>
       <c r="L17" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="M17" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.341</v>
+        <v>0.345</v>
       </c>
       <c r="O17" t="n">
         <v>17.7</v>
       </c>
       <c r="P17" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.743</v>
+        <v>0.741</v>
       </c>
       <c r="R17" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S17" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
-        <v>37.4</v>
+        <v>37</v>
       </c>
       <c r="U17" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V17" t="n">
         <v>14.5</v>
       </c>
       <c r="W17" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X17" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>-3.3</v>
+        <v>-3.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3498,22 +3565,22 @@
         <v>10</v>
       </c>
       <c r="AL17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="n">
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3525,16 +3592,16 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV17" t="n">
         <v>14</v>
       </c>
       <c r="AW17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX17" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AY17" t="n">
         <v>8</v>
@@ -3543,7 +3610,7 @@
         <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -3578,22 +3645,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" t="n">
         <v>22</v>
       </c>
       <c r="F18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.512</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J18" t="n">
         <v>81.3</v>
@@ -3608,19 +3675,19 @@
         <v>18.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.37</v>
+        <v>0.368</v>
       </c>
       <c r="O18" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="P18" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R18" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S18" t="n">
         <v>30.8</v>
@@ -3629,10 +3696,10 @@
         <v>41.3</v>
       </c>
       <c r="U18" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V18" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="W18" t="n">
         <v>9.4</v>
@@ -3641,37 +3708,37 @@
         <v>4.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z18" t="n">
         <v>22.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
         <v>7</v>
       </c>
       <c r="AI18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
         <v>24</v>
@@ -3680,16 +3747,16 @@
         <v>8</v>
       </c>
       <c r="AL18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
         <v>25</v>
       </c>
       <c r="AN18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP18" t="n">
         <v>26</v>
@@ -3698,7 +3765,7 @@
         <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS18" t="n">
         <v>24</v>
@@ -3713,16 +3780,16 @@
         <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
         <v>22</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" t="n">
-        <v>0.163</v>
+        <v>0.167</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,37 +3845,37 @@
         <v>37.1</v>
       </c>
       <c r="J19" t="n">
-        <v>85.09999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L19" t="n">
         <v>5.1</v>
       </c>
       <c r="M19" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.337</v>
+        <v>0.336</v>
       </c>
       <c r="O19" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P19" t="n">
         <v>24.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.744</v>
+        <v>0.743</v>
       </c>
       <c r="R19" t="n">
         <v>12.2</v>
       </c>
       <c r="S19" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T19" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U19" t="n">
         <v>22.4</v>
@@ -3817,7 +3884,7 @@
         <v>15.1</v>
       </c>
       <c r="W19" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X19" t="n">
         <v>4.2</v>
@@ -3829,16 +3896,16 @@
         <v>19.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="AC19" t="n">
         <v>-9.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
@@ -3853,13 +3920,13 @@
         <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3871,13 +3938,13 @@
         <v>22</v>
       </c>
       <c r="AO19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
@@ -3892,13 +3959,13 @@
         <v>10</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
         <v>7</v>
       </c>
       <c r="AX19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY19" t="n">
         <v>27</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -3960,67 +4027,67 @@
         <v>38.3</v>
       </c>
       <c r="J20" t="n">
-        <v>83.5</v>
+        <v>84</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L20" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M20" t="n">
         <v>19</v>
       </c>
       <c r="N20" t="n">
-        <v>0.344</v>
+        <v>0.339</v>
       </c>
       <c r="O20" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.764</v>
+        <v>0.753</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T20" t="n">
-        <v>43.3</v>
+        <v>43.9</v>
       </c>
       <c r="U20" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="V20" t="n">
         <v>13.1</v>
       </c>
       <c r="W20" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X20" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Y20" t="n">
         <v>5.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
@@ -4032,16 +4099,16 @@
         <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
         <v>10</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
@@ -4050,25 +4117,25 @@
         <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AR20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT20" t="n">
         <v>10</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>14</v>
       </c>
       <c r="AU20" t="n">
         <v>18</v>
@@ -4080,13 +4147,13 @@
         <v>23</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY20" t="n">
         <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-8</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>28</v>
@@ -4214,19 +4281,19 @@
         <v>29</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK21" t="n">
         <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM21" t="n">
         <v>20</v>
@@ -4244,7 +4311,7 @@
         <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
         <v>28</v>
@@ -4256,13 +4323,13 @@
         <v>14</v>
       </c>
       <c r="AV21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY21" t="n">
         <v>6</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -4306,34 +4373,34 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" t="n">
         <v>22</v>
       </c>
       <c r="F22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>0.512</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
       </c>
       <c r="I22" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J22" t="n">
-        <v>85.2</v>
+        <v>85</v>
       </c>
       <c r="K22" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L22" t="n">
         <v>7.4</v>
       </c>
       <c r="M22" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="N22" t="n">
         <v>0.322</v>
@@ -4342,25 +4409,25 @@
         <v>17.5</v>
       </c>
       <c r="P22" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="Q22" t="n">
         <v>0.741</v>
       </c>
       <c r="R22" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S22" t="n">
         <v>34.5</v>
       </c>
       <c r="T22" t="n">
-        <v>46.5</v>
+        <v>46.6</v>
       </c>
       <c r="U22" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="V22" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W22" t="n">
         <v>7.3</v>
@@ -4369,52 +4436,52 @@
         <v>5.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z22" t="n">
         <v>22.6</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB22" t="n">
         <v>100</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
         <v>14</v>
       </c>
       <c r="AF22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
         <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK22" t="n">
         <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM22" t="n">
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO22" t="n">
         <v>12</v>
@@ -4444,7 +4511,7 @@
         <v>20</v>
       </c>
       <c r="AX22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY22" t="n">
         <v>10</v>
@@ -4453,13 +4520,13 @@
         <v>28</v>
       </c>
       <c r="BA22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB22" t="n">
         <v>17</v>
       </c>
       <c r="BC22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -4503,19 +4570,19 @@
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J23" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L23" t="n">
         <v>7.1</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
         <v>0.365</v>
@@ -4530,46 +4597,46 @@
         <v>0.733</v>
       </c>
       <c r="R23" t="n">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="U23" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.7</v>
+        <v>-5.9</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF23" t="n">
         <v>26</v>
@@ -4584,13 +4651,13 @@
         <v>16</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="n">
         <v>23</v>
@@ -4611,7 +4678,7 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
@@ -4620,25 +4687,25 @@
         <v>22</v>
       </c>
       <c r="AV23" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AW23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>21</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>20</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -4748,13 +4815,13 @@
         <v>-12.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
       </c>
       <c r="AF24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG24" t="n">
         <v>28</v>
@@ -4784,19 +4851,19 @@
         <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS24" t="n">
         <v>27</v>
       </c>
       <c r="AT24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="n">
         <v>29</v>
@@ -4805,19 +4872,19 @@
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX24" t="n">
         <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" t="n">
         <v>26</v>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.578</v>
       </c>
       <c r="H25" t="n">
         <v>48.7</v>
       </c>
       <c r="I25" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="J25" t="n">
-        <v>86.09999999999999</v>
+        <v>86.2</v>
       </c>
       <c r="K25" t="n">
         <v>0.467</v>
@@ -4882,37 +4949,37 @@
         <v>27</v>
       </c>
       <c r="N25" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O25" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P25" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.789</v>
+        <v>0.788</v>
       </c>
       <c r="R25" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S25" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T25" t="n">
-        <v>42.3</v>
+        <v>42.5</v>
       </c>
       <c r="U25" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V25" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W25" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X25" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y25" t="n">
         <v>3.9</v>
@@ -4924,13 +4991,13 @@
         <v>20.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>107.4</v>
+        <v>107.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4948,7 +5015,7 @@
         <v>3</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK25" t="n">
         <v>6</v>
@@ -4966,46 +5033,46 @@
         <v>17</v>
       </c>
       <c r="AP25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
         <v>2</v>
       </c>
       <c r="AR25" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
         <v>20</v>
       </c>
       <c r="AV25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW25" t="n">
         <v>6</v>
       </c>
       <c r="AX25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
         <v>13</v>
       </c>
       <c r="BB25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
@@ -5127,13 +5194,13 @@
         <v>10</v>
       </c>
       <c r="AI26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ26" t="n">
         <v>2</v>
       </c>
       <c r="AK26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
@@ -5142,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5184,7 +5251,7 @@
         <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-2.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG27" t="n">
         <v>22</v>
@@ -5309,13 +5376,13 @@
         <v>4</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5366,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC27" t="n">
         <v>20</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -5416,73 +5483,73 @@
         <v>38.1</v>
       </c>
       <c r="J28" t="n">
-        <v>83.40000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.457</v>
+        <v>0.459</v>
       </c>
       <c r="L28" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.365</v>
+        <v>0.372</v>
       </c>
       <c r="O28" t="n">
-        <v>17.2</v>
+        <v>16.9</v>
       </c>
       <c r="P28" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.767</v>
+        <v>0.764</v>
       </c>
       <c r="R28" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S28" t="n">
         <v>33.9</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB28" t="n">
         <v>101.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF28" t="n">
         <v>11</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>10</v>
       </c>
       <c r="AG28" t="n">
         <v>11</v>
@@ -5491,13 +5558,13 @@
         <v>2</v>
       </c>
       <c r="AI28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ28" t="n">
         <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5506,16 +5573,16 @@
         <v>15</v>
       </c>
       <c r="AN28" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
@@ -5524,7 +5591,7 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5533,7 +5600,7 @@
         <v>12</v>
       </c>
       <c r="AW28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX28" t="n">
         <v>7</v>
@@ -5545,7 +5612,7 @@
         <v>9</v>
       </c>
       <c r="BA28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB28" t="n">
         <v>15</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -5580,61 +5647,61 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29" t="n">
         <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>0.659</v>
+        <v>0.651</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J29" t="n">
-        <v>84.8</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L29" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="N29" t="n">
         <v>0.346</v>
       </c>
       <c r="O29" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="P29" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q29" t="n">
         <v>0.779</v>
       </c>
       <c r="R29" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="S29" t="n">
         <v>30.5</v>
       </c>
       <c r="T29" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U29" t="n">
         <v>20.9</v>
       </c>
       <c r="V29" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W29" t="n">
         <v>7.4</v>
@@ -5643,7 +5710,7 @@
         <v>4.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z29" t="n">
         <v>21.5</v>
@@ -5652,16 +5719,16 @@
         <v>21.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>105.8</v>
+        <v>105.6</v>
       </c>
       <c r="AC29" t="n">
         <v>5</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF29" t="n">
         <v>8</v>
@@ -5670,10 +5737,10 @@
         <v>9</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ29" t="n">
         <v>12</v>
@@ -5682,13 +5749,13 @@
         <v>14</v>
       </c>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM29" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5697,16 +5764,16 @@
         <v>4</v>
       </c>
       <c r="AQ29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS29" t="n">
         <v>26</v>
       </c>
       <c r="AT29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU29" t="n">
         <v>19</v>
@@ -5718,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="AX29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>-2.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
         <v>22</v>
       </c>
       <c r="AF30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5861,7 +5928,7 @@
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL30" t="n">
         <v>17</v>
@@ -5873,7 +5940,7 @@
         <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP30" t="n">
         <v>15</v>
@@ -5882,13 +5949,13 @@
         <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU30" t="n">
         <v>25</v>
@@ -5900,10 +5967,10 @@
         <v>25</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ30" t="n">
         <v>5</v>
@@ -5912,7 +5979,7 @@
         <v>24</v>
       </c>
       <c r="BB30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" t="n">
         <v>15</v>
       </c>
       <c r="G31" t="n">
-        <v>0.667</v>
+        <v>0.659</v>
       </c>
       <c r="H31" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="J31" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L31" t="n">
         <v>6</v>
@@ -5974,7 +6041,7 @@
         <v>15.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.379</v>
+        <v>0.381</v>
       </c>
       <c r="O31" t="n">
         <v>15.7</v>
@@ -5989,13 +6056,13 @@
         <v>10.3</v>
       </c>
       <c r="S31" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="T31" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U31" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="V31" t="n">
         <v>14.8</v>
@@ -6004,28 +6071,28 @@
         <v>7.6</v>
       </c>
       <c r="X31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y31" t="n">
         <v>4.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="AC31" t="n">
         <v>2.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF31" t="n">
         <v>8</v>
@@ -6034,7 +6101,7 @@
         <v>8</v>
       </c>
       <c r="AH31" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
@@ -6067,10 +6134,10 @@
         <v>23</v>
       </c>
       <c r="AS31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU31" t="n">
         <v>5</v>
@@ -6082,22 +6149,22 @@
         <v>14</v>
       </c>
       <c r="AX31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB31" t="n">
         <v>19</v>
       </c>
-      <c r="BA31" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>18</v>
-      </c>
       <c r="BC31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-25-2014-15</t>
+          <t>2015-01-25</t>
         </is>
       </c>
     </row>
